--- a/NikaGames/project_lost_souls.xlsx
+++ b/NikaGames/project_lost_souls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scribl\GitHub\Test-task\NikaGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF038CB-5FDF-47F3-87ED-FD71A71C959E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E170011-0A4E-4657-B469-F7E6C38D3FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -513,12 +513,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -636,18 +660,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -931,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1094,7 @@
       <c r="D14" s="29"/>
       <c r="E14" s="38"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="53" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="20"/>
@@ -1081,7 +1105,7 @@
       <c r="D15" s="29"/>
       <c r="E15" s="38"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="56"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="20"/>
       <c r="I15" s="50"/>
       <c r="J15" s="20"/>
@@ -1646,7 +1670,7 @@
         <v>20</v>
       </c>
       <c r="H64" s="19"/>
-      <c r="I64" s="53" t="s">
+      <c r="I64" s="49" t="s">
         <v>62</v>
       </c>
       <c r="J64" s="19"/>
@@ -1659,7 +1683,7 @@
         <v>80</v>
       </c>
       <c r="H65" s="20"/>
-      <c r="I65" s="54"/>
+      <c r="I65" s="50"/>
       <c r="J65" s="20"/>
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.25">
@@ -1670,7 +1694,7 @@
         <v>21</v>
       </c>
       <c r="H66" s="20"/>
-      <c r="I66" s="54"/>
+      <c r="I66" s="50"/>
       <c r="J66" s="20"/>
     </row>
     <row r="67" spans="4:10" x14ac:dyDescent="0.25">
@@ -1681,7 +1705,7 @@
         <v>81</v>
       </c>
       <c r="H67" s="20"/>
-      <c r="I67" s="54"/>
+      <c r="I67" s="50"/>
       <c r="J67" s="20"/>
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.25">
@@ -1690,7 +1714,7 @@
       <c r="F68" s="35"/>
       <c r="G68" s="52"/>
       <c r="H68" s="20"/>
-      <c r="I68" s="54"/>
+      <c r="I68" s="50"/>
       <c r="J68" s="20"/>
     </row>
     <row r="69" spans="4:10" x14ac:dyDescent="0.25">
@@ -1701,7 +1725,7 @@
         <v>22</v>
       </c>
       <c r="H69" s="20"/>
-      <c r="I69" s="54"/>
+      <c r="I69" s="50"/>
       <c r="J69" s="20"/>
     </row>
     <row r="70" spans="4:10" x14ac:dyDescent="0.25">
@@ -1712,7 +1736,7 @@
         <v>53</v>
       </c>
       <c r="H70" s="20"/>
-      <c r="I70" s="54"/>
+      <c r="I70" s="50"/>
       <c r="J70" s="20"/>
     </row>
     <row r="71" spans="4:10" x14ac:dyDescent="0.25">
@@ -1723,7 +1747,7 @@
         <v>63</v>
       </c>
       <c r="H71" s="20"/>
-      <c r="I71" s="54"/>
+      <c r="I71" s="50"/>
       <c r="J71" s="20"/>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.25">
@@ -1734,7 +1758,7 @@
         <v>46</v>
       </c>
       <c r="H72" s="20"/>
-      <c r="I72" s="54"/>
+      <c r="I72" s="50"/>
       <c r="J72" s="20"/>
     </row>
     <row r="73" spans="4:10" x14ac:dyDescent="0.25">
@@ -1745,7 +1769,7 @@
         <v>23</v>
       </c>
       <c r="H73" s="20"/>
-      <c r="I73" s="54"/>
+      <c r="I73" s="50"/>
       <c r="J73" s="20"/>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.25">
@@ -1756,7 +1780,7 @@
         <v>64</v>
       </c>
       <c r="H74" s="20"/>
-      <c r="I74" s="54"/>
+      <c r="I74" s="50"/>
       <c r="J74" s="20"/>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.25">
@@ -1767,7 +1791,7 @@
         <v>65</v>
       </c>
       <c r="H75" s="20"/>
-      <c r="I75" s="54"/>
+      <c r="I75" s="50"/>
       <c r="J75" s="20"/>
     </row>
     <row r="76" spans="4:10" x14ac:dyDescent="0.25">
@@ -1778,7 +1802,7 @@
         <v>66</v>
       </c>
       <c r="H76" s="20"/>
-      <c r="I76" s="54"/>
+      <c r="I76" s="50"/>
       <c r="J76" s="20"/>
     </row>
     <row r="77" spans="4:10" x14ac:dyDescent="0.25">
@@ -1789,7 +1813,7 @@
         <v>67</v>
       </c>
       <c r="H77" s="20"/>
-      <c r="I77" s="54"/>
+      <c r="I77" s="50"/>
       <c r="J77" s="20"/>
     </row>
     <row r="78" spans="4:10" x14ac:dyDescent="0.25">
@@ -1800,7 +1824,7 @@
         <v>74</v>
       </c>
       <c r="H78" s="20"/>
-      <c r="I78" s="54"/>
+      <c r="I78" s="50"/>
       <c r="J78" s="20"/>
     </row>
     <row r="79" spans="4:10" x14ac:dyDescent="0.25">
@@ -1811,7 +1835,7 @@
         <v>68</v>
       </c>
       <c r="H79" s="20"/>
-      <c r="I79" s="54"/>
+      <c r="I79" s="50"/>
       <c r="J79" s="20"/>
     </row>
     <row r="80" spans="4:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -1824,7 +1848,7 @@
       <c r="H80" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I80" s="54"/>
+      <c r="I80" s="50"/>
       <c r="J80" s="20"/>
     </row>
     <row r="81" spans="4:10" x14ac:dyDescent="0.25">
@@ -1835,7 +1859,7 @@
         <v>24</v>
       </c>
       <c r="H81" s="20"/>
-      <c r="I81" s="54"/>
+      <c r="I81" s="50"/>
       <c r="J81" s="20"/>
     </row>
     <row r="82" spans="4:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -1846,7 +1870,7 @@
         <v>76</v>
       </c>
       <c r="H82" s="22"/>
-      <c r="I82" s="55"/>
+      <c r="I82" s="51"/>
       <c r="J82" s="22"/>
     </row>
     <row r="83" spans="4:10" x14ac:dyDescent="0.25">
@@ -1863,7 +1887,7 @@
         <v>20</v>
       </c>
       <c r="H83" s="19"/>
-      <c r="I83" s="53" t="s">
+      <c r="I83" s="49" t="s">
         <v>82</v>
       </c>
       <c r="J83" s="19"/>
@@ -1876,7 +1900,7 @@
         <v>83</v>
       </c>
       <c r="H84" s="20"/>
-      <c r="I84" s="54"/>
+      <c r="I84" s="50"/>
       <c r="J84" s="20"/>
     </row>
     <row r="85" spans="4:10" x14ac:dyDescent="0.25">
@@ -1887,7 +1911,7 @@
         <v>21</v>
       </c>
       <c r="H85" s="20"/>
-      <c r="I85" s="54"/>
+      <c r="I85" s="50"/>
       <c r="J85" s="20"/>
     </row>
     <row r="86" spans="4:10" x14ac:dyDescent="0.25">
@@ -1898,7 +1922,7 @@
         <v>88</v>
       </c>
       <c r="H86" s="20"/>
-      <c r="I86" s="54"/>
+      <c r="I86" s="50"/>
       <c r="J86" s="20"/>
     </row>
     <row r="87" spans="4:10" x14ac:dyDescent="0.25">
@@ -1907,7 +1931,7 @@
       <c r="F87" s="35"/>
       <c r="G87" s="52"/>
       <c r="H87" s="20"/>
-      <c r="I87" s="54"/>
+      <c r="I87" s="50"/>
       <c r="J87" s="20"/>
     </row>
     <row r="88" spans="4:10" x14ac:dyDescent="0.25">
@@ -1918,7 +1942,7 @@
         <v>22</v>
       </c>
       <c r="H88" s="20"/>
-      <c r="I88" s="54"/>
+      <c r="I88" s="50"/>
       <c r="J88" s="20"/>
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.25">
@@ -1929,7 +1953,7 @@
         <v>84</v>
       </c>
       <c r="H89" s="20"/>
-      <c r="I89" s="54"/>
+      <c r="I89" s="50"/>
       <c r="J89" s="20"/>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.25">
@@ -1940,7 +1964,7 @@
         <v>23</v>
       </c>
       <c r="H90" s="20"/>
-      <c r="I90" s="54"/>
+      <c r="I90" s="50"/>
       <c r="J90" s="20"/>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.25">
@@ -1953,7 +1977,7 @@
       <c r="H91" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I91" s="54"/>
+      <c r="I91" s="50"/>
       <c r="J91" s="20"/>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.25">
@@ -1964,7 +1988,7 @@
         <v>24</v>
       </c>
       <c r="H92" s="20"/>
-      <c r="I92" s="54"/>
+      <c r="I92" s="50"/>
       <c r="J92" s="20"/>
     </row>
     <row r="93" spans="4:10" x14ac:dyDescent="0.25">
@@ -1975,16 +1999,21 @@
         <v>86</v>
       </c>
       <c r="H93" s="22"/>
-      <c r="I93" s="55"/>
+      <c r="I93" s="51"/>
       <c r="J93" s="22"/>
     </row>
     <row r="94" spans="4:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D94" s="23" t="s">
+      <c r="D94" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="G94" s="11" t="s">
+      <c r="E94" s="54"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="56" t="s">
         <v>73</v>
       </c>
+      <c r="H94" s="12"/>
+      <c r="I94" s="58"/>
+      <c r="J94" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2006,8 +2035,10 @@
     <hyperlink ref="I11:I21" r:id="rId3" display="1.1" xr:uid="{6F31BB4B-5D22-4388-91B1-0AA73F4A0766}"/>
     <hyperlink ref="I35:I47" r:id="rId4" display="1.3" xr:uid="{41BFA009-67B9-4E3F-832F-4AFF80AF1D2D}"/>
     <hyperlink ref="I48" r:id="rId5" xr:uid="{D4EAE991-3814-4E51-9971-C22AA0836689}"/>
+    <hyperlink ref="I64:I82" r:id="rId6" display="2.2" xr:uid="{0E40B012-0384-4F91-89FF-DF026C927018}"/>
+    <hyperlink ref="I83:I93" r:id="rId7" display="2.3" xr:uid="{6C43E161-0F6A-4C07-B4D2-4CFF5AA4CD2C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/NikaGames/project_lost_souls.xlsx
+++ b/NikaGames/project_lost_souls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Scribl\GitHub\Test-task\NikaGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E170011-0A4E-4657-B469-F7E6C38D3FE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C8B741-80B5-427B-A29F-967ED7068E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
   <si>
     <t>config:</t>
   </si>
@@ -285,13 +285,16 @@
     <t>1. Создать 6-го пользователя</t>
   </si>
   <si>
-    <t>Пользователь создаеться его имя скрыто.</t>
-  </si>
-  <si>
-    <t>Пользователь создаеться его имя видно и возможно выбрать из списка.</t>
-  </si>
-  <si>
-    <t>При создании шестого пользователся его имя скрыто, в списке пользователей.</t>
+    <t>При создании шестого пользователя его имя скрыто, в списке пользователей.</t>
+  </si>
+  <si>
+    <t>Пользователь создаётся, его имя видно и возможно выбрать из списка.</t>
+  </si>
+  <si>
+    <t>2. Уточнить необходимость добавить навигацию спец (таб., стрелки) клавишами в меню.</t>
+  </si>
+  <si>
+    <t>Пользователь создаётся, его имя скрыто.</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -513,36 +516,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -645,6 +624,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -663,15 +646,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -953,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G101" sqref="G101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1063,7 +1058,7 @@
         <v>20</v>
       </c>
       <c r="H11" s="19"/>
-      <c r="I11" s="49" t="s">
+      <c r="I11" s="51" t="s">
         <v>32</v>
       </c>
       <c r="J11" s="19"/>
@@ -1076,7 +1071,7 @@
         <v>27</v>
       </c>
       <c r="H12" s="20"/>
-      <c r="I12" s="50"/>
+      <c r="I12" s="52"/>
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1087,27 +1082,27 @@
         <v>21</v>
       </c>
       <c r="H13" s="20"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="52"/>
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="29"/>
       <c r="E14" s="38"/>
       <c r="F14" s="35"/>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="55" t="s">
         <v>26</v>
       </c>
       <c r="H14" s="20"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="52"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="29"/>
       <c r="E15" s="38"/>
       <c r="F15" s="35"/>
-      <c r="G15" s="53"/>
+      <c r="G15" s="55"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="52"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1118,7 +1113,7 @@
         <v>22</v>
       </c>
       <c r="H16" s="20"/>
-      <c r="I16" s="50"/>
+      <c r="I16" s="52"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
@@ -1129,7 +1124,7 @@
         <v>28</v>
       </c>
       <c r="H17" s="20"/>
-      <c r="I17" s="50"/>
+      <c r="I17" s="52"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
@@ -1140,7 +1135,7 @@
         <v>23</v>
       </c>
       <c r="H18" s="20"/>
-      <c r="I18" s="50"/>
+      <c r="I18" s="52"/>
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="4:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -1153,7 +1148,7 @@
       <c r="H19" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="50"/>
+      <c r="I19" s="52"/>
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="4:10" x14ac:dyDescent="0.25">
@@ -1164,7 +1159,7 @@
         <v>24</v>
       </c>
       <c r="H20" s="20"/>
-      <c r="I20" s="50"/>
+      <c r="I20" s="52"/>
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="4:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -1175,7 +1170,7 @@
         <v>31</v>
       </c>
       <c r="H21" s="22"/>
-      <c r="I21" s="51"/>
+      <c r="I21" s="53"/>
       <c r="J21" s="22"/>
     </row>
     <row r="22" spans="4:10" x14ac:dyDescent="0.25">
@@ -1221,7 +1216,7 @@
       <c r="D25" s="29"/>
       <c r="E25" s="38"/>
       <c r="F25" s="35"/>
-      <c r="G25" s="48" t="s">
+      <c r="G25" s="50" t="s">
         <v>35</v>
       </c>
       <c r="H25" s="20"/>
@@ -1232,7 +1227,7 @@
       <c r="D26" s="29"/>
       <c r="E26" s="38"/>
       <c r="F26" s="35"/>
-      <c r="G26" s="48"/>
+      <c r="G26" s="50"/>
       <c r="H26" s="20"/>
       <c r="I26" s="44"/>
       <c r="J26" s="20"/>
@@ -1344,7 +1339,7 @@
       <c r="G35" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="49" t="s">
+      <c r="I35" s="51" t="s">
         <v>42</v>
       </c>
       <c r="J35" s="19"/>
@@ -1356,7 +1351,7 @@
       <c r="G36" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="50"/>
+      <c r="I36" s="52"/>
       <c r="J36" s="20"/>
     </row>
     <row r="37" spans="4:10" x14ac:dyDescent="0.25">
@@ -1366,25 +1361,25 @@
       <c r="G37" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I37" s="50"/>
+      <c r="I37" s="52"/>
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D38" s="29"/>
       <c r="E38" s="38"/>
       <c r="F38" s="35"/>
-      <c r="G38" s="48" t="s">
+      <c r="G38" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="I38" s="50"/>
+      <c r="I38" s="52"/>
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D39" s="29"/>
       <c r="E39" s="38"/>
       <c r="F39" s="35"/>
-      <c r="G39" s="48"/>
-      <c r="I39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="I39" s="52"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="4:10" x14ac:dyDescent="0.25">
@@ -1394,7 +1389,7 @@
       <c r="G40" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I40" s="50"/>
+      <c r="I40" s="52"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="4:10" x14ac:dyDescent="0.25">
@@ -1404,7 +1399,7 @@
       <c r="G41" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="I41" s="50"/>
+      <c r="I41" s="52"/>
       <c r="J41" s="20"/>
     </row>
     <row r="42" spans="4:10" x14ac:dyDescent="0.25">
@@ -1414,7 +1409,7 @@
       <c r="G42" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="I42" s="50"/>
+      <c r="I42" s="52"/>
       <c r="J42" s="20"/>
     </row>
     <row r="43" spans="4:10" x14ac:dyDescent="0.25">
@@ -1424,7 +1419,7 @@
       <c r="G43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="I43" s="50"/>
+      <c r="I43" s="52"/>
       <c r="J43" s="20"/>
     </row>
     <row r="44" spans="4:10" x14ac:dyDescent="0.25">
@@ -1434,7 +1429,7 @@
       <c r="G44" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I44" s="50"/>
+      <c r="I44" s="52"/>
       <c r="J44" s="20"/>
     </row>
     <row r="45" spans="4:10" x14ac:dyDescent="0.25">
@@ -1447,7 +1442,7 @@
       <c r="H45" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I45" s="50"/>
+      <c r="I45" s="52"/>
       <c r="J45" s="20"/>
     </row>
     <row r="46" spans="4:10" x14ac:dyDescent="0.25">
@@ -1457,7 +1452,7 @@
       <c r="G46" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I46" s="50"/>
+      <c r="I46" s="52"/>
       <c r="J46" s="20"/>
     </row>
     <row r="47" spans="4:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -1467,7 +1462,7 @@
       <c r="G47" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="I47" s="51"/>
+      <c r="I47" s="53"/>
       <c r="J47" s="22"/>
     </row>
     <row r="48" spans="4:10" x14ac:dyDescent="0.25">
@@ -1484,7 +1479,7 @@
         <v>20</v>
       </c>
       <c r="H48" s="19"/>
-      <c r="I48" s="49" t="s">
+      <c r="I48" s="51" t="s">
         <v>52</v>
       </c>
       <c r="J48" s="19"/>
@@ -1497,7 +1492,7 @@
         <v>55</v>
       </c>
       <c r="H49" s="20"/>
-      <c r="I49" s="50"/>
+      <c r="I49" s="52"/>
       <c r="J49" s="20"/>
     </row>
     <row r="50" spans="4:10" x14ac:dyDescent="0.25">
@@ -1508,27 +1503,27 @@
         <v>21</v>
       </c>
       <c r="H50" s="20"/>
-      <c r="I50" s="50"/>
+      <c r="I50" s="52"/>
       <c r="J50" s="20"/>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D51" s="29"/>
       <c r="E51" s="38"/>
       <c r="F51" s="35"/>
-      <c r="G51" s="48" t="s">
+      <c r="G51" s="50" t="s">
         <v>54</v>
       </c>
       <c r="H51" s="20"/>
-      <c r="I51" s="50"/>
+      <c r="I51" s="52"/>
       <c r="J51" s="20"/>
     </row>
     <row r="52" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D52" s="29"/>
       <c r="E52" s="38"/>
       <c r="F52" s="35"/>
-      <c r="G52" s="48"/>
+      <c r="G52" s="50"/>
       <c r="H52" s="20"/>
-      <c r="I52" s="50"/>
+      <c r="I52" s="52"/>
       <c r="J52" s="20"/>
     </row>
     <row r="53" spans="4:10" x14ac:dyDescent="0.25">
@@ -1539,7 +1534,7 @@
         <v>22</v>
       </c>
       <c r="H53" s="20"/>
-      <c r="I53" s="50"/>
+      <c r="I53" s="52"/>
       <c r="J53" s="20"/>
     </row>
     <row r="54" spans="4:10" x14ac:dyDescent="0.25">
@@ -1550,7 +1545,7 @@
         <v>53</v>
       </c>
       <c r="H54" s="20"/>
-      <c r="I54" s="50"/>
+      <c r="I54" s="52"/>
       <c r="J54" s="20"/>
     </row>
     <row r="55" spans="4:10" x14ac:dyDescent="0.25">
@@ -1561,7 +1556,7 @@
         <v>56</v>
       </c>
       <c r="H55" s="20"/>
-      <c r="I55" s="50"/>
+      <c r="I55" s="52"/>
       <c r="J55" s="20"/>
     </row>
     <row r="56" spans="4:10" x14ac:dyDescent="0.25">
@@ -1572,7 +1567,7 @@
         <v>57</v>
       </c>
       <c r="H56" s="20"/>
-      <c r="I56" s="50"/>
+      <c r="I56" s="52"/>
       <c r="J56" s="20"/>
     </row>
     <row r="57" spans="4:10" x14ac:dyDescent="0.25">
@@ -1583,7 +1578,7 @@
         <v>23</v>
       </c>
       <c r="H57" s="20"/>
-      <c r="I57" s="50"/>
+      <c r="I57" s="52"/>
       <c r="J57" s="20"/>
     </row>
     <row r="58" spans="4:10" x14ac:dyDescent="0.25">
@@ -1594,7 +1589,7 @@
         <v>58</v>
       </c>
       <c r="H58" s="20"/>
-      <c r="I58" s="50"/>
+      <c r="I58" s="52"/>
       <c r="J58" s="20"/>
     </row>
     <row r="59" spans="4:10" x14ac:dyDescent="0.25">
@@ -1605,7 +1600,7 @@
         <v>59</v>
       </c>
       <c r="H59" s="20"/>
-      <c r="I59" s="50"/>
+      <c r="I59" s="52"/>
       <c r="J59" s="20"/>
     </row>
     <row r="60" spans="4:10" x14ac:dyDescent="0.25">
@@ -1618,7 +1613,7 @@
       <c r="H60" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="I60" s="50"/>
+      <c r="I60" s="52"/>
       <c r="J60" s="20"/>
     </row>
     <row r="61" spans="4:10" x14ac:dyDescent="0.25">
@@ -1631,7 +1626,7 @@
       <c r="H61" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="I61" s="50"/>
+      <c r="I61" s="52"/>
       <c r="J61" s="20"/>
     </row>
     <row r="62" spans="4:10" x14ac:dyDescent="0.25">
@@ -1642,7 +1637,7 @@
         <v>24</v>
       </c>
       <c r="H62" s="20"/>
-      <c r="I62" s="50"/>
+      <c r="I62" s="52"/>
       <c r="J62" s="20"/>
     </row>
     <row r="63" spans="4:10" x14ac:dyDescent="0.25">
@@ -1653,7 +1648,7 @@
         <v>61</v>
       </c>
       <c r="H63" s="22"/>
-      <c r="I63" s="51"/>
+      <c r="I63" s="53"/>
       <c r="J63" s="22"/>
     </row>
     <row r="64" spans="4:10" x14ac:dyDescent="0.25">
@@ -1670,7 +1665,7 @@
         <v>20</v>
       </c>
       <c r="H64" s="19"/>
-      <c r="I64" s="49" t="s">
+      <c r="I64" s="51" t="s">
         <v>62</v>
       </c>
       <c r="J64" s="19"/>
@@ -1683,7 +1678,7 @@
         <v>80</v>
       </c>
       <c r="H65" s="20"/>
-      <c r="I65" s="50"/>
+      <c r="I65" s="52"/>
       <c r="J65" s="20"/>
     </row>
     <row r="66" spans="4:10" x14ac:dyDescent="0.25">
@@ -1694,27 +1689,27 @@
         <v>21</v>
       </c>
       <c r="H66" s="20"/>
-      <c r="I66" s="50"/>
+      <c r="I66" s="52"/>
       <c r="J66" s="20"/>
     </row>
     <row r="67" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D67" s="29"/>
       <c r="E67" s="38"/>
       <c r="F67" s="35"/>
-      <c r="G67" s="52" t="s">
+      <c r="G67" s="54" t="s">
         <v>81</v>
       </c>
       <c r="H67" s="20"/>
-      <c r="I67" s="50"/>
+      <c r="I67" s="52"/>
       <c r="J67" s="20"/>
     </row>
     <row r="68" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D68" s="29"/>
       <c r="E68" s="38"/>
       <c r="F68" s="35"/>
-      <c r="G68" s="52"/>
+      <c r="G68" s="54"/>
       <c r="H68" s="20"/>
-      <c r="I68" s="50"/>
+      <c r="I68" s="52"/>
       <c r="J68" s="20"/>
     </row>
     <row r="69" spans="4:10" x14ac:dyDescent="0.25">
@@ -1725,7 +1720,7 @@
         <v>22</v>
       </c>
       <c r="H69" s="20"/>
-      <c r="I69" s="50"/>
+      <c r="I69" s="52"/>
       <c r="J69" s="20"/>
     </row>
     <row r="70" spans="4:10" x14ac:dyDescent="0.25">
@@ -1736,7 +1731,7 @@
         <v>53</v>
       </c>
       <c r="H70" s="20"/>
-      <c r="I70" s="50"/>
+      <c r="I70" s="52"/>
       <c r="J70" s="20"/>
     </row>
     <row r="71" spans="4:10" x14ac:dyDescent="0.25">
@@ -1747,7 +1742,7 @@
         <v>63</v>
       </c>
       <c r="H71" s="20"/>
-      <c r="I71" s="50"/>
+      <c r="I71" s="52"/>
       <c r="J71" s="20"/>
     </row>
     <row r="72" spans="4:10" x14ac:dyDescent="0.25">
@@ -1758,7 +1753,7 @@
         <v>46</v>
       </c>
       <c r="H72" s="20"/>
-      <c r="I72" s="50"/>
+      <c r="I72" s="52"/>
       <c r="J72" s="20"/>
     </row>
     <row r="73" spans="4:10" x14ac:dyDescent="0.25">
@@ -1769,7 +1764,7 @@
         <v>23</v>
       </c>
       <c r="H73" s="20"/>
-      <c r="I73" s="50"/>
+      <c r="I73" s="52"/>
       <c r="J73" s="20"/>
     </row>
     <row r="74" spans="4:10" x14ac:dyDescent="0.25">
@@ -1780,7 +1775,7 @@
         <v>64</v>
       </c>
       <c r="H74" s="20"/>
-      <c r="I74" s="50"/>
+      <c r="I74" s="52"/>
       <c r="J74" s="20"/>
     </row>
     <row r="75" spans="4:10" x14ac:dyDescent="0.25">
@@ -1791,7 +1786,7 @@
         <v>65</v>
       </c>
       <c r="H75" s="20"/>
-      <c r="I75" s="50"/>
+      <c r="I75" s="52"/>
       <c r="J75" s="20"/>
     </row>
     <row r="76" spans="4:10" x14ac:dyDescent="0.25">
@@ -1802,7 +1797,7 @@
         <v>66</v>
       </c>
       <c r="H76" s="20"/>
-      <c r="I76" s="50"/>
+      <c r="I76" s="52"/>
       <c r="J76" s="20"/>
     </row>
     <row r="77" spans="4:10" x14ac:dyDescent="0.25">
@@ -1813,7 +1808,7 @@
         <v>67</v>
       </c>
       <c r="H77" s="20"/>
-      <c r="I77" s="50"/>
+      <c r="I77" s="52"/>
       <c r="J77" s="20"/>
     </row>
     <row r="78" spans="4:10" x14ac:dyDescent="0.25">
@@ -1824,7 +1819,7 @@
         <v>74</v>
       </c>
       <c r="H78" s="20"/>
-      <c r="I78" s="50"/>
+      <c r="I78" s="52"/>
       <c r="J78" s="20"/>
     </row>
     <row r="79" spans="4:10" x14ac:dyDescent="0.25">
@@ -1835,7 +1830,7 @@
         <v>68</v>
       </c>
       <c r="H79" s="20"/>
-      <c r="I79" s="50"/>
+      <c r="I79" s="52"/>
       <c r="J79" s="20"/>
     </row>
     <row r="80" spans="4:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -1848,7 +1843,7 @@
       <c r="H80" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I80" s="50"/>
+      <c r="I80" s="52"/>
       <c r="J80" s="20"/>
     </row>
     <row r="81" spans="4:10" x14ac:dyDescent="0.25">
@@ -1859,7 +1854,7 @@
         <v>24</v>
       </c>
       <c r="H81" s="20"/>
-      <c r="I81" s="50"/>
+      <c r="I81" s="52"/>
       <c r="J81" s="20"/>
     </row>
     <row r="82" spans="4:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -1870,7 +1865,7 @@
         <v>76</v>
       </c>
       <c r="H82" s="22"/>
-      <c r="I82" s="51"/>
+      <c r="I82" s="53"/>
       <c r="J82" s="22"/>
     </row>
     <row r="83" spans="4:10" x14ac:dyDescent="0.25">
@@ -1887,7 +1882,7 @@
         <v>20</v>
       </c>
       <c r="H83" s="19"/>
-      <c r="I83" s="49" t="s">
+      <c r="I83" s="51" t="s">
         <v>82</v>
       </c>
       <c r="J83" s="19"/>
@@ -1900,7 +1895,7 @@
         <v>83</v>
       </c>
       <c r="H84" s="20"/>
-      <c r="I84" s="50"/>
+      <c r="I84" s="52"/>
       <c r="J84" s="20"/>
     </row>
     <row r="85" spans="4:10" x14ac:dyDescent="0.25">
@@ -1911,27 +1906,27 @@
         <v>21</v>
       </c>
       <c r="H85" s="20"/>
-      <c r="I85" s="50"/>
+      <c r="I85" s="52"/>
       <c r="J85" s="20"/>
     </row>
     <row r="86" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D86" s="29"/>
       <c r="E86" s="38"/>
       <c r="F86" s="35"/>
-      <c r="G86" s="52" t="s">
-        <v>88</v>
+      <c r="G86" s="54" t="s">
+        <v>86</v>
       </c>
       <c r="H86" s="20"/>
-      <c r="I86" s="50"/>
+      <c r="I86" s="52"/>
       <c r="J86" s="20"/>
     </row>
     <row r="87" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D87" s="29"/>
       <c r="E87" s="38"/>
       <c r="F87" s="35"/>
-      <c r="G87" s="52"/>
+      <c r="G87" s="54"/>
       <c r="H87" s="20"/>
-      <c r="I87" s="50"/>
+      <c r="I87" s="52"/>
       <c r="J87" s="20"/>
     </row>
     <row r="88" spans="4:10" x14ac:dyDescent="0.25">
@@ -1942,7 +1937,7 @@
         <v>22</v>
       </c>
       <c r="H88" s="20"/>
-      <c r="I88" s="50"/>
+      <c r="I88" s="52"/>
       <c r="J88" s="20"/>
     </row>
     <row r="89" spans="4:10" x14ac:dyDescent="0.25">
@@ -1953,7 +1948,7 @@
         <v>84</v>
       </c>
       <c r="H89" s="20"/>
-      <c r="I89" s="50"/>
+      <c r="I89" s="52"/>
       <c r="J89" s="20"/>
     </row>
     <row r="90" spans="4:10" x14ac:dyDescent="0.25">
@@ -1964,7 +1959,7 @@
         <v>23</v>
       </c>
       <c r="H90" s="20"/>
-      <c r="I90" s="50"/>
+      <c r="I90" s="52"/>
       <c r="J90" s="20"/>
     </row>
     <row r="91" spans="4:10" x14ac:dyDescent="0.25">
@@ -1977,7 +1972,7 @@
       <c r="H91" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="I91" s="50"/>
+      <c r="I91" s="52"/>
       <c r="J91" s="20"/>
     </row>
     <row r="92" spans="4:10" x14ac:dyDescent="0.25">
@@ -1988,35 +1983,47 @@
         <v>24</v>
       </c>
       <c r="H92" s="20"/>
-      <c r="I92" s="50"/>
+      <c r="I92" s="52"/>
       <c r="J92" s="20"/>
     </row>
     <row r="93" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D93" s="30"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="42"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="35"/>
       <c r="G93" s="37" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H93" s="22"/>
-      <c r="I93" s="51"/>
+      <c r="I93" s="53"/>
       <c r="J93" s="22"/>
     </row>
     <row r="94" spans="4:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="D94" s="57" t="s">
+      <c r="D94" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="E94" s="54"/>
-      <c r="F94" s="55"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="60"/>
       <c r="G94" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="H94" s="12"/>
-      <c r="I94" s="58"/>
-      <c r="J94" s="12"/>
+      <c r="H94" s="22"/>
+      <c r="I94" s="48"/>
+      <c r="J94" s="22"/>
+    </row>
+    <row r="95" spans="4:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D95" s="57"/>
+      <c r="E95" s="61"/>
+      <c r="F95" s="62"/>
+      <c r="G95" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="H95" s="12"/>
+      <c r="I95" s="49"/>
+      <c r="J95" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="D94:F95"/>
     <mergeCell ref="G51:G52"/>
     <mergeCell ref="I48:I63"/>
     <mergeCell ref="G86:G87"/>
